--- a/excel_files/exchange rate.xlsx
+++ b/excel_files/exchange rate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDD3BF-A28D-4500-9062-8196DE61FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="FRED Graph"/>
+    <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -72,35 +78,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{04084224-A968-48FE-B1A0-198106011698}"/>
+  </tableStyles>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,10 +114,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -152,71 +155,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,7 +247,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -267,11 +270,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -280,13 +283,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -296,7 +299,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -305,7 +308,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -314,7 +317,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -322,10 +325,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -390,21 +393,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B616"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331:B616"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,15 +417,15 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>26665</v>
       </c>
       <c r="B2" s="4">
-        <v>8.0041</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>8.0040999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>26696</v>
       </c>
@@ -428,7 +433,7 @@
         <v>7.7538</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>26724</v>
       </c>
@@ -436,31 +441,31 @@
         <v>7.5465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>26755</v>
       </c>
       <c r="B5" s="4">
-        <v>7.5462</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>7.5461999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>26785</v>
       </c>
       <c r="B6" s="4">
-        <v>7.4927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>7.4927000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>26816</v>
       </c>
       <c r="B7" s="4">
-        <v>7.2719</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>7.2718999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>26846</v>
       </c>
@@ -468,15 +473,15 @@
         <v>7.351</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>26877</v>
       </c>
       <c r="B9" s="4">
-        <v>7.5643</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>7.5643000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>26908</v>
       </c>
@@ -484,23 +489,23 @@
         <v>7.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>26938</v>
       </c>
       <c r="B11" s="4">
-        <v>7.7271</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>7.7271000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>26969</v>
       </c>
       <c r="B12" s="4">
-        <v>7.834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>7.8339999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>26999</v>
       </c>
@@ -508,119 +513,119 @@
         <v>8.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>27030</v>
       </c>
       <c r="B14" s="4">
-        <v>8.4377</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>8.4376999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>27061</v>
       </c>
       <c r="B15" s="4">
-        <v>8.2444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>8.2444000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>27089</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0567</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>8.0566999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>27120</v>
       </c>
       <c r="B17" s="4">
-        <v>7.8655</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>7.8654999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>27150</v>
       </c>
       <c r="B18" s="4">
-        <v>7.7855</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>7.7854999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>27181</v>
       </c>
       <c r="B19" s="4">
-        <v>7.849</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>7.8490000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>27211</v>
       </c>
       <c r="B20" s="4">
-        <v>7.8345</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>7.8345000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>27242</v>
       </c>
       <c r="B21" s="4">
-        <v>7.9841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>7.9840999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>27273</v>
       </c>
       <c r="B22" s="4">
-        <v>8.121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>8.1210000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>27303</v>
       </c>
       <c r="B23" s="4">
-        <v>8.0505</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>8.0504999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>27334</v>
       </c>
       <c r="B24" s="4">
-        <v>8.0644</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>8.0643999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>27364</v>
       </c>
       <c r="B25" s="4">
-        <v>8.0952</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+        <v>8.0952000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>27395</v>
       </c>
       <c r="B26" s="4">
-        <v>8.13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>27426</v>
       </c>
       <c r="B27" s="4">
-        <v>7.9717</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+        <v>7.9717000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>27454</v>
       </c>
@@ -628,15 +633,15 @@
         <v>7.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27485</v>
       </c>
       <c r="B29" s="4">
-        <v>7.8841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+        <v>7.8841000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>27515</v>
       </c>
@@ -644,47 +649,47 @@
         <v>8.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>27546</v>
       </c>
       <c r="B31" s="4">
-        <v>8.1914</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+        <v>8.1913999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>27576</v>
       </c>
       <c r="B32" s="4">
-        <v>8.4895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+        <v>8.4894999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>27607</v>
       </c>
       <c r="B33" s="4">
-        <v>8.7895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+        <v>8.7895000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>27638</v>
       </c>
       <c r="B34" s="4">
-        <v>8.8648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+        <v>8.8648000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>27668</v>
       </c>
       <c r="B35" s="4">
-        <v>8.8945</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+        <v>8.8945000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>27699</v>
       </c>
@@ -692,151 +697,151 @@
         <v>8.8994</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>27729</v>
       </c>
       <c r="B37" s="4">
-        <v>8.9827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+        <v>8.9826999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>27760</v>
       </c>
       <c r="B38" s="4">
-        <v>8.9471</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+        <v>8.9471000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>27791</v>
       </c>
       <c r="B39" s="4">
-        <v>8.9389</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+        <v>8.9389000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>27820</v>
       </c>
       <c r="B40" s="4">
-        <v>8.9648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+        <v>8.9648000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>27851</v>
       </c>
       <c r="B41" s="4">
-        <v>8.9918</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+        <v>8.9917999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>27881</v>
       </c>
       <c r="B42" s="4">
-        <v>9.0265</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+        <v>9.0265000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>27912</v>
       </c>
       <c r="B43" s="4">
-        <v>9.1109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+        <v>9.1109000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>27942</v>
       </c>
       <c r="B44" s="4">
-        <v>8.9233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+        <v>8.9232999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>27973</v>
       </c>
       <c r="B45" s="4">
-        <v>8.9755</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+        <v>8.9755000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>28004</v>
       </c>
       <c r="B46" s="4">
-        <v>9.0614</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+        <v>9.0614000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>28034</v>
       </c>
       <c r="B47" s="4">
-        <v>8.896</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+        <v>8.8960000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>28065</v>
       </c>
       <c r="B48" s="4">
-        <v>8.9658</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+        <v>8.9657999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>28095</v>
       </c>
       <c r="B49" s="4">
-        <v>8.8535</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+        <v>8.8535000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>28126</v>
       </c>
       <c r="B50" s="4">
-        <v>8.9052</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+        <v>8.9052000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>28157</v>
       </c>
       <c r="B51" s="4">
-        <v>8.8626</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+        <v>8.8626000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>28185</v>
       </c>
       <c r="B52" s="4">
-        <v>8.8417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+        <v>8.8416999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>28216</v>
       </c>
       <c r="B53" s="4">
-        <v>8.8429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+        <v>8.8429000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>28246</v>
       </c>
       <c r="B54" s="4">
-        <v>8.8338</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+        <v>8.8338000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>28277</v>
       </c>
@@ -844,7 +849,7 @@
         <v>8.8605</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>28307</v>
       </c>
@@ -852,15 +857,15 @@
         <v>8.8163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>28338</v>
       </c>
       <c r="B57" s="4">
-        <v>8.7213</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+        <v>8.7212999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>28369</v>
       </c>
@@ -868,135 +873,135 @@
         <v>8.73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>28399</v>
       </c>
       <c r="B59" s="4">
-        <v>8.615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+        <v>8.6150000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>28430</v>
       </c>
       <c r="B60" s="4">
-        <v>8.6405</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+        <v>8.6404999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>28460</v>
       </c>
       <c r="B61" s="4">
-        <v>8.5371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+        <v>8.5371000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>28491</v>
       </c>
       <c r="B62" s="4">
-        <v>8.201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+        <v>8.2010000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>28522</v>
       </c>
       <c r="B63" s="4">
-        <v>8.1094</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+        <v>8.1094000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>28550</v>
       </c>
       <c r="B64" s="4">
-        <v>8.2078</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+        <v>8.2078000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>28581</v>
       </c>
       <c r="B65" s="4">
-        <v>8.465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+        <v>8.4649999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>28611</v>
       </c>
       <c r="B66" s="4">
-        <v>8.5827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+        <v>8.5827000000000009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>28642</v>
       </c>
       <c r="B67" s="4">
-        <v>8.4041</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+        <v>8.4040999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>28672</v>
       </c>
       <c r="B68" s="4">
-        <v>8.1665</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+        <v>8.1664999999999992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>28703</v>
       </c>
       <c r="B69" s="4">
-        <v>8.0139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+        <v>8.0138999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>28734</v>
       </c>
       <c r="B70" s="4">
-        <v>8.0365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+        <v>8.0365000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>28764</v>
       </c>
       <c r="B71" s="4">
-        <v>7.911</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+        <v>7.9109999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>28795</v>
       </c>
       <c r="B72" s="4">
-        <v>8.0335</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+        <v>8.0335000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>28825</v>
       </c>
       <c r="B73" s="4">
-        <v>8.216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+        <v>8.2159999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>28856</v>
       </c>
       <c r="B74" s="4">
-        <v>8.2091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+        <v>8.2090999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>28887</v>
       </c>
@@ -1004,87 +1009,87 @@
         <v>8.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>28915</v>
       </c>
       <c r="B76" s="4">
-        <v>8.2418</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+        <v>8.2417999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>28946</v>
       </c>
       <c r="B77" s="4">
-        <v>8.2062</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+        <v>8.2062000000000008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>28976</v>
       </c>
       <c r="B78" s="4">
-        <v>8.2891</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+        <v>8.2890999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>29007</v>
       </c>
       <c r="B79" s="4">
-        <v>8.119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+        <v>8.1189999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>29037</v>
       </c>
       <c r="B80" s="4">
-        <v>7.9067</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+        <v>7.9066999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>29068</v>
       </c>
       <c r="B81" s="4">
-        <v>8.0113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+        <v>8.0113000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>29099</v>
       </c>
       <c r="B82" s="4">
-        <v>8.1358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+        <v>8.1357999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>29129</v>
       </c>
       <c r="B83" s="4">
-        <v>8.2259</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+        <v>8.2258999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>29160</v>
       </c>
       <c r="B84" s="4">
-        <v>8.1926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+        <v>8.1926000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>29190</v>
       </c>
       <c r="B85" s="4">
-        <v>8.0995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+        <v>8.0995000000000008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>29221</v>
       </c>
@@ -1092,23 +1097,23 @@
         <v>7.9882</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>29252</v>
       </c>
       <c r="B87" s="4">
-        <v>7.9816</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+        <v>7.9816000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>29281</v>
       </c>
       <c r="B88" s="4">
-        <v>8.1519</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+        <v>8.1518999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>29312</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>29342</v>
       </c>
@@ -1124,15 +1129,15 @@
         <v>7.8586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>29373</v>
       </c>
       <c r="B91" s="4">
-        <v>7.8424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+        <v>7.8423999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>29403</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>7.7664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>29434</v>
       </c>
@@ -1148,31 +1153,31 @@
         <v>7.7824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>29465</v>
       </c>
       <c r="B94" s="4">
-        <v>7.7495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+        <v>7.7495000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>29495</v>
       </c>
       <c r="B95" s="4">
-        <v>7.7323</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+        <v>7.7323000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>29526</v>
       </c>
       <c r="B96" s="4">
-        <v>7.7712</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+        <v>7.7712000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>29556</v>
       </c>
@@ -1180,47 +1185,47 @@
         <v>7.9314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row r="98" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>29587</v>
       </c>
       <c r="B98" s="4">
-        <v>7.9576</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+        <v>7.9576000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>29618</v>
       </c>
       <c r="B99" s="4">
-        <v>8.2211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+        <v>8.2210999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>29646</v>
       </c>
       <c r="B100" s="4">
-        <v>8.2432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+        <v>8.2431999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>29677</v>
       </c>
       <c r="B101" s="4">
-        <v>8.2918</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+        <v>8.2918000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>29707</v>
       </c>
       <c r="B102" s="4">
-        <v>8.4045</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+        <v>8.4045000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>29738</v>
       </c>
@@ -1228,87 +1233,87 @@
         <v>8.5564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>29768</v>
       </c>
       <c r="B104" s="4">
-        <v>8.9065</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+        <v>8.9064999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>29799</v>
       </c>
       <c r="B105" s="4">
-        <v>9.0605</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+        <v>9.0604999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>29830</v>
       </c>
       <c r="B106" s="4">
-        <v>9.1152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+        <v>9.1151999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>29860</v>
       </c>
       <c r="B107" s="4">
-        <v>9.1348</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+        <v>9.1348000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>29891</v>
       </c>
       <c r="B108" s="4">
-        <v>9.135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+        <v>9.1349999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>29921</v>
       </c>
       <c r="B109" s="4">
-        <v>9.1305</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+        <v>9.1304999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>29952</v>
       </c>
       <c r="B110" s="4">
-        <v>9.1525</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+        <v>9.1524999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>29983</v>
       </c>
       <c r="B111" s="4">
-        <v>9.2144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+        <v>9.2143999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>30011</v>
       </c>
       <c r="B112" s="4">
-        <v>9.2935</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+        <v>9.2934999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>30042</v>
       </c>
       <c r="B113" s="4">
-        <v>9.3923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+        <v>9.3923000000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>30072</v>
       </c>
@@ -1316,111 +1321,111 @@
         <v>9.2965</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>30103</v>
       </c>
       <c r="B115" s="4">
-        <v>9.4668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+        <v>9.4667999999999992</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>30133</v>
       </c>
       <c r="B116" s="4">
-        <v>9.5633</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+        <v>9.5632999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>30164</v>
       </c>
       <c r="B117" s="4">
-        <v>9.5741</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+        <v>9.5740999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>30195</v>
       </c>
       <c r="B118" s="4">
-        <v>9.6495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+        <v>9.6494999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>30225</v>
       </c>
       <c r="B119" s="4">
-        <v>9.7005</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+        <v>9.7004999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>30256</v>
       </c>
       <c r="B120" s="4">
-        <v>9.7968</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+        <v>9.7967999999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>30286</v>
       </c>
       <c r="B121" s="4">
-        <v>9.6926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+        <v>9.6926000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>30317</v>
       </c>
       <c r="B122" s="4">
-        <v>9.7938</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+        <v>9.7937999999999992</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>30348</v>
       </c>
       <c r="B123" s="4">
-        <v>9.9184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+        <v>9.9184000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>30376</v>
       </c>
       <c r="B124" s="4">
-        <v>9.9652</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+        <v>9.9651999999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>30407</v>
       </c>
       <c r="B125" s="4">
-        <v>9.9824</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+        <v>9.9824000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>30437</v>
       </c>
       <c r="B126" s="4">
-        <v>9.9895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+        <v>9.9894999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>30468</v>
       </c>
       <c r="B127" s="4">
-        <v>10.0491</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+        <v>10.049099999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>30498</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>10.0875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>30529</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>10.1874</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>30560</v>
       </c>
@@ -1444,23 +1449,23 @@
         <v>10.2005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>30590</v>
       </c>
       <c r="B131" s="4">
-        <v>10.229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+        <v>10.228999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>30621</v>
       </c>
       <c r="B132" s="4">
-        <v>10.3784</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+        <v>10.378399999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>30651</v>
       </c>
@@ -1468,15 +1473,15 @@
         <v>10.4895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>30682</v>
       </c>
       <c r="B134" s="4">
-        <v>10.7152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+        <v>10.715199999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>30713</v>
       </c>
@@ -1484,15 +1489,15 @@
         <v>10.7437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>30742</v>
       </c>
       <c r="B136" s="4">
-        <v>10.7145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+        <v>10.714499999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>30773</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>30803</v>
       </c>
@@ -1508,15 +1513,15 @@
         <v>11.0168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>30834</v>
       </c>
       <c r="B139" s="4">
-        <v>11.0638</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+        <v>11.063800000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>30864</v>
       </c>
@@ -1524,15 +1529,15 @@
         <v>11.3714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>30895</v>
       </c>
       <c r="B141" s="4">
-        <v>11.5561</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+        <v>11.556100000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>30926</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>11.8584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>30956</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>12.0268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>30987</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>12.0784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>31017</v>
       </c>
@@ -1564,7 +1569,7 @@
         <v>12.2925</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>31048</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>12.6119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>31079</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>12.9217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>31107</v>
       </c>
@@ -1588,23 +1593,23 @@
         <v>12.8614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>31138</v>
       </c>
       <c r="B149" s="4">
-        <v>12.4005</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+        <v>12.400499999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>31168</v>
       </c>
       <c r="B150" s="4">
-        <v>12.5005</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+        <v>12.500500000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>31199</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>12.4405</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
         <v>31229</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>12.0314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
         <v>31260</v>
       </c>
@@ -1628,31 +1633,31 @@
         <v>11.8977</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
         <v>31291</v>
       </c>
       <c r="B154" s="4">
-        <v>12.1255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+        <v>12.125500000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
         <v>31321</v>
       </c>
       <c r="B155" s="4">
-        <v>12.0332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+        <v>12.033200000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
         <v>31352</v>
       </c>
       <c r="B156" s="4">
-        <v>12.1011</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+        <v>12.101100000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
         <v>31382</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>12.1524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
         <v>31413</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>12.2433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
         <v>31444</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row r="160" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
         <v>31472</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>12.289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
         <v>31503</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>12.3932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row r="162" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
         <v>31533</v>
       </c>
@@ -1700,15 +1705,15 @@
         <v>12.4657</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row r="163" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
         <v>31564</v>
       </c>
       <c r="B163" s="4">
-        <v>12.5986</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+        <v>12.598599999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
         <v>31594</v>
       </c>
@@ -1716,31 +1721,31 @@
         <v>12.5077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
         <v>31625</v>
       </c>
       <c r="B165" s="4">
-        <v>12.5667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+        <v>12.566700000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
         <v>31656</v>
       </c>
       <c r="B166" s="4">
-        <v>12.6757</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+        <v>12.675700000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
         <v>31686</v>
       </c>
       <c r="B167" s="4">
-        <v>12.8486</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+        <v>12.848599999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
         <v>31717</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>13.0761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    <row r="169" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
         <v>31747</v>
       </c>
@@ -1756,23 +1761,23 @@
         <v>13.1486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
         <v>31778</v>
       </c>
       <c r="B170" s="4">
-        <v>13.0295</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+        <v>13.029500000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
         <v>31809</v>
       </c>
       <c r="B171" s="4">
-        <v>13.0621</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+        <v>13.062099999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
         <v>31837</v>
       </c>
@@ -1780,15 +1785,15 @@
         <v>12.9236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    <row r="173" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
         <v>31868</v>
       </c>
       <c r="B173" s="4">
-        <v>12.8145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+        <v>12.814500000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3">
         <v>31898</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>12.666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
         <v>31929</v>
       </c>
@@ -1804,15 +1809,15 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row r="176" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
         <v>31959</v>
       </c>
       <c r="B176" s="4">
-        <v>13.0126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+        <v>13.012600000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
         <v>31990</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>13.0852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
         <v>32021</v>
       </c>
@@ -1828,23 +1833,23 @@
         <v>12.9933</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
         <v>32051</v>
       </c>
       <c r="B179" s="4">
-        <v>13.0429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+        <v>13.042899999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
         <v>32082</v>
       </c>
       <c r="B180" s="4">
-        <v>12.9721</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+        <v>12.972099999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
         <v>32112</v>
       </c>
@@ -1852,7 +1857,7 @@
         <v>12.9345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
         <v>32143</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>13.0395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
         <v>32174</v>
       </c>
@@ -1868,15 +1873,15 @@
         <v>13.065</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    <row r="184" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
         <v>32203</v>
       </c>
       <c r="B184" s="4">
-        <v>12.9791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+        <v>12.979100000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
         <v>32234</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>13.1576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
         <v>32264</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>13.3157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row r="187" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
         <v>32295</v>
       </c>
@@ -1900,23 +1905,23 @@
         <v>13.7859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row r="188" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
         <v>32325</v>
       </c>
       <c r="B188" s="4">
-        <v>14.0795</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+        <v>14.079499999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
         <v>32356</v>
       </c>
       <c r="B189" s="4">
-        <v>14.217</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+        <v>14.217000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
         <v>32387</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>14.4895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row r="191" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
         <v>32417</v>
       </c>
@@ -1932,15 +1937,15 @@
         <v>14.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row r="192" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
         <v>32448</v>
       </c>
       <c r="B192" s="4">
-        <v>14.966</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+        <v>14.965999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
         <v>32478</v>
       </c>
@@ -1948,23 +1953,23 @@
         <v>15.019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row r="194" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
         <v>32509</v>
       </c>
       <c r="B194" s="4">
-        <v>15.0925</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+        <v>15.092499999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
         <v>32540</v>
       </c>
       <c r="B195" s="4">
-        <v>15.2405</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+        <v>15.240500000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3">
         <v>32568</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>15.4674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+    <row r="197" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
         <v>32599</v>
       </c>
@@ -1980,23 +1985,23 @@
         <v>15.718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+    <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3">
         <v>32629</v>
       </c>
       <c r="B198" s="4">
-        <v>16.1018</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+        <v>16.101800000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3">
         <v>32660</v>
       </c>
       <c r="B199" s="4">
-        <v>16.4195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+        <v>16.419499999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
         <v>32690</v>
       </c>
@@ -2004,47 +2009,47 @@
         <v>16.416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+    <row r="201" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3">
         <v>32721</v>
       </c>
       <c r="B201" s="4">
-        <v>16.6091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+        <v>16.609100000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3">
         <v>32752</v>
       </c>
       <c r="B202" s="4">
-        <v>16.745</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+        <v>16.745000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3">
         <v>32782</v>
       </c>
       <c r="B203" s="4">
-        <v>16.819</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+        <v>16.818999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3">
         <v>32813</v>
       </c>
       <c r="B204" s="4">
-        <v>16.9248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+        <v>16.924800000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
         <v>32843</v>
       </c>
       <c r="B205" s="4">
-        <v>16.932</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+        <v>16.931999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3">
         <v>32874</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>16.9633</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+    <row r="207" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3">
         <v>32905</v>
       </c>
@@ -2060,15 +2065,15 @@
         <v>16.9895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+    <row r="208" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3">
         <v>32933</v>
       </c>
       <c r="B208" s="4">
-        <v>17.1164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+        <v>17.116399999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3">
         <v>32964</v>
       </c>
@@ -2076,7 +2081,7 @@
         <v>17.2943</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+    <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
         <v>32994</v>
       </c>
@@ -2084,47 +2089,47 @@
         <v>17.3245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+    <row r="211" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3">
         <v>33025</v>
       </c>
       <c r="B211" s="4">
-        <v>17.421</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+        <v>17.420999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3">
         <v>33055</v>
       </c>
       <c r="B212" s="4">
-        <v>17.4119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+        <v>17.411899999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="3">
         <v>33086</v>
       </c>
       <c r="B213" s="4">
-        <v>17.3465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+        <v>17.346499999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
         <v>33117</v>
       </c>
       <c r="B214" s="4">
-        <v>17.8595</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+        <v>17.859500000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
         <v>33147</v>
       </c>
       <c r="B215" s="4">
-        <v>18.0736</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+        <v>18.073599999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3">
         <v>33178</v>
       </c>
@@ -2132,23 +2137,23 @@
         <v>18.0975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+    <row r="217" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
         <v>33208</v>
       </c>
       <c r="B217" s="4">
-        <v>18.1272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+        <v>18.127199999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
         <v>33239</v>
       </c>
       <c r="B218" s="4">
-        <v>18.339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+        <v>18.338999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
         <v>33270</v>
       </c>
@@ -2156,39 +2161,39 @@
         <v>18.86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+    <row r="220" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
         <v>33298</v>
       </c>
       <c r="B220" s="4">
-        <v>19.2429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+        <v>19.242899999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
         <v>33329</v>
       </c>
       <c r="B221" s="4">
-        <v>19.9064</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+        <v>19.906400000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
         <v>33359</v>
       </c>
       <c r="B222" s="4">
-        <v>20.5186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+        <v>20.518599999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
         <v>33390</v>
       </c>
       <c r="B223" s="4">
-        <v>21.062</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+        <v>21.062000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
         <v>33420</v>
       </c>
@@ -2196,23 +2201,23 @@
         <v>25.6127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+    <row r="225" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
         <v>33451</v>
       </c>
       <c r="B225" s="4">
-        <v>25.8457</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+        <v>25.845700000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
         <v>33482</v>
       </c>
       <c r="B226" s="4">
-        <v>25.8335</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+        <v>25.833500000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
         <v>33512</v>
       </c>
@@ -2220,23 +2225,23 @@
         <v>25.7973</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+    <row r="228" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
         <v>33543</v>
       </c>
       <c r="B228" s="4">
-        <v>25.8021</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+        <v>25.802099999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
         <v>33573</v>
       </c>
       <c r="B229" s="4">
-        <v>25.818</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+        <v>25.818000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
         <v>33604</v>
       </c>
@@ -2244,23 +2249,23 @@
         <v>25.8629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+    <row r="231" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
         <v>33635</v>
       </c>
       <c r="B231" s="4">
-        <v>25.9921</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+        <v>25.992100000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>33664</v>
       </c>
       <c r="B232" s="4">
-        <v>28.3777</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+        <v>28.377700000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
         <v>33695</v>
       </c>
@@ -2268,23 +2273,23 @@
         <v>28.8962</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+    <row r="234" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>33725</v>
       </c>
       <c r="B234" s="4">
-        <v>28.5415</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+        <v>28.541499999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
         <v>33756</v>
       </c>
       <c r="B235" s="4">
-        <v>28.5186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+        <v>28.518599999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
         <v>33786</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>28.5639</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+    <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
         <v>33817</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>28.4635</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+    <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
         <v>33848</v>
       </c>
@@ -2308,23 +2313,23 @@
         <v>28.4757</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+    <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
         <v>33878</v>
       </c>
       <c r="B239" s="4">
-        <v>28.4767</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+        <v>28.476700000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>33909</v>
       </c>
       <c r="B240" s="4">
-        <v>28.4737</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+        <v>28.473700000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
         <v>33939</v>
       </c>
@@ -2332,23 +2337,23 @@
         <v>28.9786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+    <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
         <v>33970</v>
       </c>
       <c r="B242" s="4">
-        <v>29.0432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+        <v>29.043199999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
         <v>34001</v>
       </c>
       <c r="B243" s="4">
-        <v>30.0421</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+        <v>30.042100000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
         <v>34029</v>
       </c>
@@ -2356,31 +2361,31 @@
         <v>31.9391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+    <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
         <v>34060</v>
       </c>
       <c r="B245" s="4">
-        <v>31.6095</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+        <v>31.609500000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
         <v>34090</v>
       </c>
       <c r="B246" s="4">
-        <v>31.6125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+        <v>31.612500000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
         <v>34121</v>
       </c>
       <c r="B247" s="4">
-        <v>31.6682</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+        <v>31.668199999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
         <v>34151</v>
       </c>
@@ -2388,15 +2393,15 @@
         <v>31.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+    <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
         <v>34182</v>
       </c>
       <c r="B249" s="4">
-        <v>31.6123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+        <v>31.612300000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
         <v>34213</v>
       </c>
@@ -2404,23 +2409,23 @@
         <v>31.5776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+    <row r="251" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
         <v>34243</v>
       </c>
       <c r="B251" s="4">
-        <v>31.505</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+        <v>31.504999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
         <v>34274</v>
       </c>
       <c r="B252" s="4">
-        <v>31.4335</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+        <v>31.433499999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
         <v>34304</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+    <row r="254" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
         <v>34335</v>
       </c>
@@ -2436,15 +2441,15 @@
         <v>31.44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+    <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
         <v>34366</v>
       </c>
       <c r="B255" s="4">
-        <v>31.4489</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+        <v>31.448899999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
         <v>34394</v>
       </c>
@@ -2452,31 +2457,31 @@
         <v>31.4147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+    <row r="257" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
         <v>34425</v>
       </c>
       <c r="B257" s="4">
-        <v>31.3914</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+        <v>31.391400000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
         <v>34455</v>
       </c>
       <c r="B258" s="4">
-        <v>31.3754</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+        <v>31.375399999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
         <v>34486</v>
       </c>
       <c r="B259" s="4">
-        <v>31.3845</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+        <v>31.384499999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
         <v>34516</v>
       </c>
@@ -2484,47 +2489,47 @@
         <v>31.3764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+    <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
         <v>34547</v>
       </c>
       <c r="B261" s="4">
-        <v>31.3727</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+        <v>31.372699999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
         <v>34578</v>
       </c>
       <c r="B262" s="4">
-        <v>31.3723</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+        <v>31.372299999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
         <v>34608</v>
       </c>
       <c r="B263" s="4">
-        <v>31.3726</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+        <v>31.372599999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
         <v>34639</v>
       </c>
       <c r="B264" s="4">
-        <v>31.394</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+        <v>31.393999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
         <v>34669</v>
       </c>
       <c r="B265" s="4">
-        <v>31.3894</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+        <v>31.389399999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
         <v>34700</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>31.3736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+    <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
         <v>34731</v>
       </c>
@@ -2540,71 +2545,71 @@
         <v>31.3795</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+    <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
         <v>34759</v>
       </c>
       <c r="B268" s="4">
-        <v>31.5865</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+        <v>31.586500000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
         <v>34790</v>
       </c>
       <c r="B269" s="4">
-        <v>31.4073</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+        <v>31.407299999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
         <v>34820</v>
       </c>
       <c r="B270" s="4">
-        <v>31.4179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+        <v>31.417899999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
         <v>34851</v>
       </c>
       <c r="B271" s="4">
-        <v>31.4037</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+        <v>31.403700000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
         <v>34881</v>
       </c>
       <c r="B272" s="4">
-        <v>31.3853</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+        <v>31.385300000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
         <v>34912</v>
       </c>
       <c r="B273" s="4">
-        <v>31.5923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+        <v>31.592300000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
         <v>34943</v>
       </c>
       <c r="B274" s="4">
-        <v>33.3098</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+        <v>33.309800000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
         <v>34973</v>
       </c>
       <c r="B275" s="4">
-        <v>34.6564</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+        <v>34.656399999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
         <v>35004</v>
       </c>
@@ -2612,151 +2617,151 @@
         <v>34.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+    <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
         <v>35034</v>
       </c>
       <c r="B277" s="4">
-        <v>34.9663</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+        <v>34.966299999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
         <v>35065</v>
       </c>
       <c r="B278" s="4">
-        <v>35.8117</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+        <v>35.811700000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
         <v>35096</v>
       </c>
       <c r="B279" s="4">
-        <v>36.5945</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+        <v>36.594499999999996</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
         <v>35125</v>
       </c>
       <c r="B280" s="4">
-        <v>34.4852</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+        <v>34.485199999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
         <v>35156</v>
       </c>
       <c r="B281" s="4">
-        <v>34.3195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+        <v>34.319499999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
         <v>35186</v>
       </c>
       <c r="B282" s="4">
-        <v>35.025</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+        <v>35.024999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
         <v>35217</v>
       </c>
       <c r="B283" s="4">
-        <v>35.0995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+        <v>35.099499999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
         <v>35247</v>
       </c>
       <c r="B284" s="4">
-        <v>35.6673</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+        <v>35.667299999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
         <v>35278</v>
       </c>
       <c r="B285" s="4">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
         <v>35309</v>
       </c>
       <c r="B286" s="4">
-        <v>35.87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
         <v>35339</v>
       </c>
       <c r="B287" s="4">
-        <v>35.8036</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+        <v>35.803600000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
         <v>35370</v>
       </c>
       <c r="B288" s="4">
-        <v>35.8392</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+        <v>35.839199999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
         <v>35400</v>
       </c>
       <c r="B289" s="4">
-        <v>35.8815</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+        <v>35.881500000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
         <v>35431</v>
       </c>
       <c r="B290" s="4">
-        <v>35.9037</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+        <v>35.903700000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
         <v>35462</v>
       </c>
       <c r="B291" s="4">
-        <v>35.8905</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+        <v>35.890500000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
         <v>35490</v>
       </c>
       <c r="B292" s="4">
-        <v>35.8848</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+        <v>35.884799999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
         <v>35521</v>
       </c>
       <c r="B293" s="4">
-        <v>35.8281</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+        <v>35.828099999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
         <v>35551</v>
       </c>
       <c r="B294" s="4">
-        <v>35.8248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+        <v>35.824800000000003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
         <v>35582</v>
       </c>
@@ -2764,23 +2769,23 @@
         <v>35.8202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+    <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
         <v>35612</v>
       </c>
       <c r="B296" s="4">
-        <v>35.7474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+        <v>35.747399999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
         <v>35643</v>
       </c>
       <c r="B297" s="4">
-        <v>36.0085</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+        <v>36.008499999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
         <v>35674</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>36.4756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+    <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
         <v>35704</v>
       </c>
@@ -2796,15 +2801,15 @@
         <v>36.302</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+    <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
         <v>35735</v>
       </c>
       <c r="B300" s="4">
-        <v>37.2889</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+        <v>37.288899999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
         <v>35765</v>
       </c>
@@ -2812,31 +2817,31 @@
         <v>39.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+    <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
         <v>35796</v>
       </c>
       <c r="B302" s="4">
-        <v>39.391</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+        <v>39.390999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
         <v>35827</v>
       </c>
       <c r="B303" s="4">
-        <v>39.0079</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+        <v>39.007899999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>35855</v>
       </c>
       <c r="B304" s="4">
-        <v>39.5686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+        <v>39.568600000000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
         <v>35886</v>
       </c>
@@ -2844,31 +2849,31 @@
         <v>39.7029</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+    <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>35916</v>
       </c>
       <c r="B306" s="4">
-        <v>40.4687</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+        <v>40.468699999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
         <v>35947</v>
       </c>
       <c r="B307" s="4">
-        <v>42.3668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+        <v>42.366799999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
         <v>35977</v>
       </c>
       <c r="B308" s="4">
-        <v>42.6118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+        <v>42.611800000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
         <v>36008</v>
       </c>
@@ -2876,95 +2881,95 @@
         <v>42.8429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+    <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
         <v>36039</v>
       </c>
       <c r="B310" s="4">
-        <v>42.579</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+        <v>42.579000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
         <v>36069</v>
       </c>
       <c r="B311" s="4">
-        <v>42.3943</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+        <v>42.394300000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
         <v>36100</v>
       </c>
       <c r="B312" s="4">
-        <v>42.4284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+        <v>42.428400000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
         <v>36130</v>
       </c>
       <c r="B313" s="4">
-        <v>42.5909</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+        <v>42.590899999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>36161</v>
       </c>
       <c r="B314" s="4">
-        <v>42.5453</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+        <v>42.545299999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
         <v>36192</v>
       </c>
       <c r="B315" s="4">
-        <v>42.5316</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+        <v>42.531599999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
         <v>36220</v>
       </c>
       <c r="B316" s="4">
-        <v>42.5161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+        <v>42.516100000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
         <v>36251</v>
       </c>
       <c r="B317" s="4">
-        <v>42.7968</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+        <v>42.796799999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>36281</v>
       </c>
       <c r="B318" s="4">
-        <v>42.859</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+        <v>42.859000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
         <v>36312</v>
       </c>
       <c r="B319" s="4">
-        <v>43.2127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+        <v>43.212699999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>36342</v>
       </c>
       <c r="B320" s="4">
-        <v>43.3567</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+        <v>43.356699999999996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
         <v>36373</v>
       </c>
@@ -2972,79 +2977,79 @@
         <v>43.5032</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+    <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
         <v>36404</v>
       </c>
       <c r="B322" s="4">
-        <v>43.5981</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+        <v>43.598100000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>36434</v>
       </c>
       <c r="B323" s="4">
-        <v>43.5528</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+        <v>43.552799999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
         <v>36465</v>
       </c>
       <c r="B324" s="4">
-        <v>43.458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+        <v>43.457999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>36495</v>
       </c>
       <c r="B325" s="4">
-        <v>43.5239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+        <v>43.523899999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>36526</v>
       </c>
       <c r="B326" s="4">
-        <v>43.5895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+        <v>43.589500000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
         <v>36557</v>
       </c>
       <c r="B327" s="4">
-        <v>43.654</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+        <v>43.654000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
         <v>36586</v>
       </c>
       <c r="B328" s="4">
-        <v>43.6383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+        <v>43.638300000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
         <v>36617</v>
       </c>
       <c r="B329" s="4">
-        <v>43.6847</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+        <v>43.684699999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
         <v>36647</v>
       </c>
       <c r="B330" s="4">
-        <v>44.0759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+        <v>44.075899999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
         <v>36678</v>
       </c>
@@ -3052,143 +3057,143 @@
         <v>44.7605</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+    <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
         <v>36708</v>
       </c>
       <c r="B332" s="4">
-        <v>44.8405</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+        <v>44.840499999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
         <v>36739</v>
       </c>
       <c r="B333" s="4">
-        <v>45.7687</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+        <v>45.768700000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>36770</v>
       </c>
       <c r="B334" s="4">
-        <v>45.968</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+        <v>45.968000000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
         <v>36800</v>
       </c>
       <c r="B335" s="4">
-        <v>46.4252</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+        <v>46.425199999999997</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>36831</v>
       </c>
       <c r="B336" s="4">
-        <v>46.8214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+        <v>46.821399999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
         <v>36861</v>
       </c>
       <c r="B337" s="4">
-        <v>46.7845</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+        <v>46.784500000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>36892</v>
       </c>
       <c r="B338" s="4">
-        <v>46.6138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+        <v>46.613799999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>36923</v>
       </c>
       <c r="B339" s="4">
-        <v>46.5616</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+        <v>46.561599999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>36951</v>
       </c>
       <c r="B340" s="4">
-        <v>46.6532</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+        <v>46.653199999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>36982</v>
       </c>
       <c r="B341" s="4">
-        <v>46.7886</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+        <v>46.788600000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>37012</v>
       </c>
       <c r="B342" s="4">
-        <v>46.9473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+        <v>46.947299999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
         <v>37043</v>
       </c>
       <c r="B343" s="4">
-        <v>47.0424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+        <v>47.042400000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
         <v>37073</v>
       </c>
       <c r="B344" s="4">
-        <v>47.1781</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+        <v>47.178100000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
         <v>37104</v>
       </c>
       <c r="B345" s="4">
-        <v>47.1665</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+        <v>47.166499999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
         <v>37135</v>
       </c>
       <c r="B346" s="4">
-        <v>47.7511</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+        <v>47.751100000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
         <v>37165</v>
       </c>
       <c r="B347" s="4">
-        <v>48.0514</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+        <v>48.051400000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3">
         <v>37196</v>
       </c>
       <c r="B348" s="4">
-        <v>48.043</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+        <v>48.042999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="3">
         <v>37226</v>
       </c>
@@ -3196,23 +3201,23 @@
         <v>47.9345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+    <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="3">
         <v>37257</v>
       </c>
       <c r="B350" s="4">
-        <v>48.3533</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+        <v>48.353299999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="3">
         <v>37288</v>
       </c>
       <c r="B351" s="4">
-        <v>48.7168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+        <v>48.716799999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="3">
         <v>37316</v>
       </c>
@@ -3220,111 +3225,111 @@
         <v>48.7667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+    <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="3">
         <v>37347</v>
       </c>
       <c r="B353" s="4">
-        <v>48.9386</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+        <v>48.938600000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="3">
         <v>37377</v>
       </c>
       <c r="B354" s="4">
-        <v>49.0168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+        <v>49.016800000000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="3">
         <v>37408</v>
       </c>
       <c r="B355" s="4">
-        <v>48.984</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+        <v>48.984000000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="3">
         <v>37438</v>
       </c>
       <c r="B356" s="4">
-        <v>48.7877</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+        <v>48.787700000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="3">
         <v>37469</v>
       </c>
       <c r="B357" s="4">
-        <v>48.615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+        <v>48.615000000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="3">
         <v>37500</v>
       </c>
       <c r="B358" s="4">
-        <v>48.4625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+        <v>48.462499999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="3">
         <v>37530</v>
       </c>
       <c r="B359" s="4">
-        <v>48.3882</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+        <v>48.388199999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="3">
         <v>37561</v>
       </c>
       <c r="B360" s="4">
-        <v>48.2853</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+        <v>48.285299999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="3">
         <v>37591</v>
       </c>
       <c r="B361" s="4">
-        <v>48.1495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+        <v>48.149500000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="3">
         <v>37622</v>
       </c>
       <c r="B362" s="4">
-        <v>47.9571</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+        <v>47.957099999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="3">
         <v>37653</v>
       </c>
       <c r="B363" s="4">
-        <v>47.7474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
+        <v>47.747399999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="3">
         <v>37681</v>
       </c>
       <c r="B364" s="4">
-        <v>47.6767</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
+        <v>47.676699999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="3">
         <v>37712</v>
       </c>
       <c r="B365" s="4">
-        <v>47.3909</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
+        <v>47.390900000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
         <v>37742</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>47.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
+    <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
         <v>37773</v>
       </c>
@@ -3340,7 +3345,7 @@
         <v>46.6995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
+    <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="3">
         <v>37803</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>46.22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
+    <row r="369" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="3">
         <v>37834</v>
       </c>
@@ -3356,71 +3361,71 @@
         <v>45.9557</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
+    <row r="370" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="3">
         <v>37865</v>
       </c>
       <c r="B370" s="4">
-        <v>45.8467</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
+        <v>45.846699999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="3">
         <v>37895</v>
       </c>
       <c r="B371" s="4">
-        <v>45.4036</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
+        <v>45.403599999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="3">
         <v>37926</v>
       </c>
       <c r="B372" s="4">
-        <v>45.5544</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
+        <v>45.554400000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="3">
         <v>37956</v>
       </c>
       <c r="B373" s="4">
-        <v>45.5741</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
+        <v>45.574100000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="3">
         <v>37987</v>
       </c>
       <c r="B374" s="4">
-        <v>45.456</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
+        <v>45.456000000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="3">
         <v>38018</v>
       </c>
       <c r="B375" s="4">
-        <v>45.2726</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
+        <v>45.272599999999997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="3">
         <v>38047</v>
       </c>
       <c r="B376" s="4">
-        <v>44.9693</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
+        <v>44.969299999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="3">
         <v>38078</v>
       </c>
       <c r="B377" s="4">
-        <v>43.8918</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
+        <v>43.891800000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="3">
         <v>38108</v>
       </c>
@@ -3428,31 +3433,31 @@
         <v>45.1755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
+    <row r="379" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="3">
         <v>38139</v>
       </c>
       <c r="B379" s="4">
-        <v>45.5027</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
+        <v>45.502699999999997</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="3">
         <v>38169</v>
       </c>
       <c r="B380" s="4">
-        <v>46.0557</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
+        <v>46.055700000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="3">
         <v>38200</v>
       </c>
       <c r="B381" s="4">
-        <v>46.322</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
+        <v>46.322000000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="3">
         <v>38231</v>
       </c>
@@ -3460,55 +3465,55 @@
         <v>46.0548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
+    <row r="383" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="3">
         <v>38261</v>
       </c>
       <c r="B383" s="4">
-        <v>45.7355</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
+        <v>45.735500000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="3">
         <v>38292</v>
       </c>
       <c r="B384" s="4">
-        <v>45.0325</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
+        <v>45.032499999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="3">
         <v>38322</v>
       </c>
       <c r="B385" s="4">
-        <v>43.847</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
+        <v>43.847000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="3">
         <v>38353</v>
       </c>
       <c r="B386" s="4">
-        <v>43.615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
+        <v>43.615000000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="3">
         <v>38384</v>
       </c>
       <c r="B387" s="4">
-        <v>43.5758</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
+        <v>43.575800000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="3">
         <v>38412</v>
       </c>
       <c r="B388" s="4">
-        <v>43.5861</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
+        <v>43.586100000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="3">
         <v>38443</v>
       </c>
@@ -3516,31 +3521,31 @@
         <v>43.6419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
+    <row r="390" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="3">
         <v>38473</v>
       </c>
       <c r="B390" s="4">
-        <v>43.4095</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
+        <v>43.409500000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="3">
         <v>38504</v>
       </c>
       <c r="B391" s="4">
-        <v>43.5245</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
+        <v>43.524500000000003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="3">
         <v>38534</v>
       </c>
       <c r="B392" s="4">
-        <v>43.434</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
+        <v>43.433999999999997</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="3">
         <v>38565</v>
       </c>
@@ -3548,15 +3553,15 @@
         <v>43.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
+    <row r="394" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="3">
         <v>38596</v>
       </c>
       <c r="B394" s="4">
-        <v>43.8462</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
+        <v>43.846200000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="3">
         <v>38626</v>
       </c>
@@ -3564,31 +3569,31 @@
         <v>44.7575</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
+    <row r="396" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="3">
         <v>38657</v>
       </c>
       <c r="B396" s="4">
-        <v>45.6315</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
+        <v>45.631500000000003</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="3">
         <v>38687</v>
       </c>
       <c r="B397" s="4">
-        <v>45.5633</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
+        <v>45.563299999999998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="3">
         <v>38718</v>
       </c>
       <c r="B398" s="4">
-        <v>44.201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
+        <v>44.201000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="3">
         <v>38749</v>
       </c>
@@ -3596,15 +3601,15 @@
         <v>44.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
+    <row r="400" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="3">
         <v>38777</v>
       </c>
       <c r="B400" s="4">
-        <v>44.3378</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
+        <v>44.337800000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="3">
         <v>38808</v>
       </c>
@@ -3612,23 +3617,23 @@
         <v>44.8245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
+    <row r="402" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="3">
         <v>38838</v>
       </c>
       <c r="B402" s="4">
-        <v>45.1959</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
+        <v>45.195900000000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="3">
         <v>38869</v>
       </c>
       <c r="B403" s="4">
-        <v>45.8886</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
+        <v>45.888599999999997</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="3">
         <v>38899</v>
       </c>
@@ -3636,15 +3641,15 @@
         <v>46.3675</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
+    <row r="405" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="3">
         <v>38930</v>
       </c>
       <c r="B405" s="4">
-        <v>46.4461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
+        <v>46.446100000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="3">
         <v>38961</v>
       </c>
@@ -3652,119 +3657,119 @@
         <v>46.0105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
+    <row r="407" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="3">
         <v>38991</v>
       </c>
       <c r="B407" s="4">
-        <v>45.3552</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
+        <v>45.355200000000004</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="3">
         <v>39022</v>
       </c>
       <c r="B408" s="4">
-        <v>44.7257</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
+        <v>44.725700000000003</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="3">
         <v>39052</v>
       </c>
       <c r="B409" s="4">
-        <v>44.4835</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
+        <v>44.483499999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="3">
         <v>39083</v>
       </c>
       <c r="B410" s="4">
-        <v>44.2062</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
+        <v>44.206200000000003</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="3">
         <v>39114</v>
       </c>
       <c r="B411" s="4">
-        <v>44.0195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
+        <v>44.019500000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="3">
         <v>39142</v>
       </c>
       <c r="B412" s="4">
-        <v>43.7936</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
+        <v>43.793599999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="3">
         <v>39173</v>
       </c>
       <c r="B413" s="4">
-        <v>42.0176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
+        <v>42.017600000000002</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="3">
         <v>39203</v>
       </c>
       <c r="B414" s="4">
-        <v>40.5686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
+        <v>40.568600000000004</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="3">
         <v>39234</v>
       </c>
       <c r="B415" s="4">
-        <v>40.5905</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
+        <v>40.590499999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="3">
         <v>39264</v>
       </c>
       <c r="B416" s="4">
-        <v>40.2738</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
+        <v>40.273800000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="3">
         <v>39295</v>
       </c>
       <c r="B417" s="4">
-        <v>40.6791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
+        <v>40.679099999999998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="3">
         <v>39326</v>
       </c>
       <c r="B418" s="4">
-        <v>40.1735</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
+        <v>40.173499999999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="3">
         <v>39356</v>
       </c>
       <c r="B419" s="4">
-        <v>39.3661</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
+        <v>39.366100000000003</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="3">
         <v>39387</v>
       </c>
       <c r="B420" s="4">
-        <v>39.3267</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
+        <v>39.326700000000002</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="3">
         <v>39417</v>
       </c>
@@ -3772,55 +3777,55 @@
         <v>39.375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
+    <row r="422" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="3">
         <v>39448</v>
       </c>
       <c r="B422" s="4">
-        <v>39.2676</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
+        <v>39.267600000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="3">
         <v>39479</v>
       </c>
       <c r="B423" s="4">
-        <v>39.6735</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
+        <v>39.673499999999997</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="3">
         <v>39508</v>
       </c>
       <c r="B424" s="4">
-        <v>40.1452</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
+        <v>40.145200000000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="3">
         <v>39539</v>
       </c>
       <c r="B425" s="4">
-        <v>39.9668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
+        <v>39.966799999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="3">
         <v>39569</v>
       </c>
       <c r="B426" s="4">
-        <v>42.0019</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
+        <v>42.001899999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="3">
         <v>39600</v>
       </c>
       <c r="B427" s="4">
-        <v>42.7633</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
+        <v>42.763300000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="3">
         <v>39630</v>
       </c>
@@ -3828,15 +3833,15 @@
         <v>42.7027</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
+    <row r="429" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="3">
         <v>39661</v>
       </c>
       <c r="B429" s="4">
-        <v>42.9057</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
+        <v>42.905700000000003</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="3">
         <v>39692</v>
       </c>
@@ -3844,31 +3849,31 @@
         <v>45.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
+    <row r="431" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431" s="3">
         <v>39722</v>
       </c>
       <c r="B431" s="4">
-        <v>48.6155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
+        <v>48.615499999999997</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="3">
         <v>39753</v>
       </c>
       <c r="B432" s="4">
-        <v>48.8517</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
+        <v>48.851700000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433" s="3">
         <v>39783</v>
       </c>
       <c r="B433" s="4">
-        <v>48.5132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
+        <v>48.513199999999998</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434" s="3">
         <v>39814</v>
       </c>
@@ -3876,31 +3881,31 @@
         <v>48.6995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
+    <row r="435" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="3">
         <v>39845</v>
       </c>
       <c r="B435" s="4">
-        <v>49.2484</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
+        <v>49.248399999999997</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436" s="3">
         <v>39873</v>
       </c>
       <c r="B436" s="4">
-        <v>51.1291</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
+        <v>51.129100000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437" s="3">
         <v>39904</v>
       </c>
       <c r="B437" s="4">
-        <v>49.9655</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
+        <v>49.965499999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438" s="3">
         <v>39934</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>48.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
+    <row r="439" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439" s="3">
         <v>39965</v>
       </c>
@@ -3916,31 +3921,31 @@
         <v>47.6736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
+    <row r="440" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="3">
         <v>39995</v>
       </c>
       <c r="B440" s="4">
-        <v>48.3624</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
+        <v>48.362400000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441" s="3">
         <v>40026</v>
       </c>
       <c r="B441" s="4">
-        <v>48.2426</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
+        <v>48.242600000000003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442" s="3">
         <v>40057</v>
       </c>
       <c r="B442" s="4">
-        <v>48.2924</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
+        <v>48.292400000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443" s="3">
         <v>40087</v>
       </c>
@@ -3948,63 +3953,63 @@
         <v>46.6524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
+    <row r="444" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444" s="3">
         <v>40118</v>
       </c>
       <c r="B444" s="4">
-        <v>46.5305</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
+        <v>46.530500000000004</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445" s="3">
         <v>40148</v>
       </c>
       <c r="B445" s="4">
-        <v>46.5273</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
+        <v>46.527299999999997</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446" s="3">
         <v>40179</v>
       </c>
       <c r="B446" s="4">
-        <v>45.8944</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
+        <v>45.894399999999997</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447" s="3">
         <v>40210</v>
       </c>
       <c r="B447" s="4">
-        <v>46.2732</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
+        <v>46.273200000000003</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="3">
         <v>40238</v>
       </c>
       <c r="B448" s="4">
-        <v>45.4509</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
+        <v>45.450899999999997</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449" s="3">
         <v>40269</v>
       </c>
       <c r="B449" s="4">
-        <v>44.444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
+        <v>44.444000000000003</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450" s="3">
         <v>40299</v>
       </c>
       <c r="B450" s="4">
-        <v>45.769</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
+        <v>45.768999999999998</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451" s="3">
         <v>40330</v>
       </c>
@@ -4012,39 +4017,39 @@
         <v>46.4983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
+    <row r="452" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452" s="3">
         <v>40360</v>
       </c>
       <c r="B452" s="4">
-        <v>46.7617</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
+        <v>46.761699999999998</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453" s="3">
         <v>40391</v>
       </c>
       <c r="B453" s="4">
-        <v>46.4605</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
+        <v>46.460500000000003</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="3">
         <v>40422</v>
       </c>
       <c r="B454" s="4">
-        <v>45.8729</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
+        <v>45.872900000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455" s="3">
         <v>40452</v>
       </c>
       <c r="B455" s="4">
-        <v>44.354</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
+        <v>44.353999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456" s="3">
         <v>40483</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>44.9315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
+    <row r="457" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457" s="3">
         <v>40513</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
+    <row r="458" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458" s="3">
         <v>40544</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>45.375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
+    <row r="459" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459" s="3">
         <v>40575</v>
       </c>
@@ -4076,23 +4081,23 @@
         <v>45.3795</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
+    <row r="460" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460" s="3">
         <v>40603</v>
       </c>
       <c r="B460" s="4">
-        <v>44.9143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
+        <v>44.914299999999997</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461" s="3">
         <v>40634</v>
       </c>
       <c r="B461" s="4">
-        <v>44.301</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
+        <v>44.301000000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462" s="3">
         <v>40664</v>
       </c>
@@ -4100,31 +4105,31 @@
         <v>44.9024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
+    <row r="463" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="3">
         <v>40695</v>
       </c>
       <c r="B463" s="4">
-        <v>44.8109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
+        <v>44.810899999999997</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464" s="3">
         <v>40725</v>
       </c>
       <c r="B464" s="4">
-        <v>44.396</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
+        <v>44.396000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465" s="3">
         <v>40756</v>
       </c>
       <c r="B465" s="4">
-        <v>45.3135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
+        <v>45.313499999999998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="3">
         <v>40787</v>
       </c>
@@ -4132,15 +4137,15 @@
         <v>47.6905</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
+    <row r="467" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A467" s="3">
         <v>40817</v>
       </c>
       <c r="B467" s="4">
-        <v>49.202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
+        <v>49.201999999999998</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A468" s="3">
         <v>40848</v>
       </c>
@@ -4148,15 +4153,15 @@
         <v>50.6785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
+    <row r="469" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A469" s="3">
         <v>40878</v>
       </c>
       <c r="B469" s="4">
-        <v>52.3824</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
+        <v>52.382399999999997</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A470" s="3">
         <v>40909</v>
       </c>
@@ -4164,23 +4169,23 @@
         <v>51.0015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
+    <row r="471" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A471" s="3">
         <v>40940</v>
       </c>
       <c r="B471" s="4">
-        <v>49.1812</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
+        <v>49.181199999999997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A472" s="3">
         <v>40969</v>
       </c>
       <c r="B472" s="4">
-        <v>50.3635</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
+        <v>50.363500000000002</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="3">
         <v>41000</v>
       </c>
@@ -4188,39 +4193,39 @@
         <v>51.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
+    <row r="474" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A474" s="3">
         <v>41030</v>
       </c>
       <c r="B474" s="4">
-        <v>54.3314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
+        <v>54.331400000000002</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A475" s="3">
         <v>41061</v>
       </c>
       <c r="B475" s="4">
-        <v>55.9424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
+        <v>55.942399999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A476" s="3">
         <v>41091</v>
       </c>
       <c r="B476" s="4">
-        <v>55.4248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
+        <v>55.424799999999998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A477" s="3">
         <v>41122</v>
       </c>
       <c r="B477" s="4">
-        <v>55.4935</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
+        <v>55.493499999999997</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A478" s="3">
         <v>41153</v>
       </c>
@@ -4228,119 +4233,119 @@
         <v>54.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
+    <row r="479" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A479" s="3">
         <v>41183</v>
       </c>
       <c r="B479" s="4">
-        <v>53.0995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
+        <v>53.099499999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A480" s="3">
         <v>41214</v>
       </c>
       <c r="B480" s="4">
-        <v>54.7845</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
+        <v>54.784500000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A481" s="3">
         <v>41244</v>
       </c>
       <c r="B481" s="4">
-        <v>54.647</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="19.5">
+        <v>54.646999999999998</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A482" s="3">
         <v>41275</v>
       </c>
       <c r="B482" s="4">
-        <v>54.229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="19.5">
+        <v>54.228999999999999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A483" s="3">
         <v>41306</v>
       </c>
       <c r="B483" s="4">
-        <v>53.8079</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="19.5">
+        <v>53.807899999999997</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A484" s="3">
         <v>41334</v>
       </c>
       <c r="B484" s="4">
-        <v>54.4229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="19.5">
+        <v>54.422899999999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A485" s="3">
         <v>41365</v>
       </c>
       <c r="B485" s="4">
-        <v>54.3236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="19.5">
+        <v>54.323599999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A486" s="3">
         <v>41395</v>
       </c>
       <c r="B486" s="4">
-        <v>54.9845</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="19.5">
+        <v>54.984499999999997</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A487" s="3">
         <v>41426</v>
       </c>
       <c r="B487" s="4">
-        <v>58.3835</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="19.5">
+        <v>58.383499999999998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A488" s="3">
         <v>41456</v>
       </c>
       <c r="B488" s="4">
-        <v>59.7609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="19.5">
+        <v>59.760899999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A489" s="3">
         <v>41487</v>
       </c>
       <c r="B489" s="4">
-        <v>62.8109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="19.5">
+        <v>62.810899999999997</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A490" s="3">
         <v>41518</v>
       </c>
       <c r="B490" s="4">
-        <v>63.648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="19.5">
+        <v>63.648000000000003</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A491" s="3">
         <v>41548</v>
       </c>
       <c r="B491" s="4">
-        <v>61.6059</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="19.5">
+        <v>61.605899999999998</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A492" s="3">
         <v>41579</v>
       </c>
       <c r="B492" s="4">
-        <v>62.5179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="19.5">
+        <v>62.517899999999997</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A493" s="3">
         <v>41609</v>
       </c>
@@ -4348,87 +4353,87 @@
         <v>61.811</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="19.5">
+    <row r="494" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A494" s="3">
         <v>41640</v>
       </c>
       <c r="B494" s="4">
-        <v>62.1057</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="19.5">
+        <v>62.105699999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A495" s="3">
         <v>41671</v>
       </c>
       <c r="B495" s="4">
-        <v>62.1642</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="19.5">
+        <v>62.164200000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A496" s="3">
         <v>41699</v>
       </c>
       <c r="B496" s="4">
-        <v>60.9476</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="19.5">
+        <v>60.947600000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A497" s="3">
         <v>41730</v>
       </c>
       <c r="B497" s="4">
-        <v>60.3464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="19.5">
+        <v>60.346400000000003</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A498" s="3">
         <v>41760</v>
       </c>
       <c r="B498" s="4">
-        <v>59.2843</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="19.5">
+        <v>59.284300000000002</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A499" s="3">
         <v>41791</v>
       </c>
       <c r="B499" s="4">
-        <v>59.7367</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="19.5">
+        <v>59.736699999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A500" s="3">
         <v>41821</v>
       </c>
       <c r="B500" s="4">
-        <v>60.0956</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="19.5">
+        <v>60.095599999999997</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A501" s="3">
         <v>41852</v>
       </c>
       <c r="B501" s="4">
-        <v>60.8738</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="19.5">
+        <v>60.873800000000003</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A502" s="3">
         <v>41883</v>
       </c>
       <c r="B502" s="4">
-        <v>60.8976</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="19.5">
+        <v>60.897599999999997</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A503" s="3">
         <v>41913</v>
       </c>
       <c r="B503" s="4">
-        <v>61.3668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="19.5">
+        <v>61.366799999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A504" s="3">
         <v>41944</v>
       </c>
@@ -4436,15 +4441,15 @@
         <v>61.6828</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="19.5">
+    <row r="505" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A505" s="3">
         <v>41974</v>
       </c>
       <c r="B505" s="4">
-        <v>62.7071</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="19.5">
+        <v>62.707099999999997</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A506" s="3">
         <v>42005</v>
       </c>
@@ -4452,199 +4457,199 @@
         <v>62.13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="19.5">
+    <row r="507" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A507" s="3">
         <v>42036</v>
       </c>
       <c r="B507" s="4">
-        <v>61.9905</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="19.5">
+        <v>61.990499999999997</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A508" s="3">
         <v>42064</v>
       </c>
       <c r="B508" s="4">
-        <v>62.4805</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="19.5">
+        <v>62.480499999999999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A509" s="3">
         <v>42095</v>
       </c>
       <c r="B509" s="4">
-        <v>62.6414</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="19.5">
+        <v>62.641399999999997</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A510" s="3">
         <v>42125</v>
       </c>
       <c r="B510" s="4">
-        <v>63.715</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="19.5">
+        <v>63.715000000000003</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A511" s="3">
         <v>42156</v>
       </c>
       <c r="B511" s="4">
-        <v>63.7809</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="19.5">
+        <v>63.780900000000003</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A512" s="3">
         <v>42186</v>
       </c>
       <c r="B512" s="4">
-        <v>63.6045</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="19.5">
+        <v>63.604500000000002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A513" s="3">
         <v>42217</v>
       </c>
       <c r="B513" s="4">
-        <v>65.0971</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="19.5">
+        <v>65.097099999999998</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A514" s="3">
         <v>42248</v>
       </c>
       <c r="B514" s="4">
-        <v>66.1667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="19.5">
+        <v>66.166700000000006</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A515" s="3">
         <v>42278</v>
       </c>
       <c r="B515" s="4">
-        <v>65.0262</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="19.5">
+        <v>65.026200000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A516" s="3">
         <v>42309</v>
       </c>
       <c r="B516" s="4">
-        <v>66.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="19.5">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A517" s="3">
         <v>42339</v>
       </c>
       <c r="B517" s="4">
-        <v>66.5023</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="19.5">
+        <v>66.502300000000005</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A518" s="3">
         <v>42370</v>
       </c>
       <c r="B518" s="4">
-        <v>67.3332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="19.5">
+        <v>67.333200000000005</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A519" s="3">
         <v>42401</v>
       </c>
       <c r="B519" s="4">
-        <v>68.2395</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="19.5">
+        <v>68.239500000000007</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A520" s="3">
         <v>42430</v>
       </c>
       <c r="B520" s="4">
-        <v>66.8909</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="19.5">
+        <v>66.890900000000002</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A521" s="3">
         <v>42461</v>
       </c>
       <c r="B521" s="4">
-        <v>66.4219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="19.5">
+        <v>66.421899999999994</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A522" s="3">
         <v>42491</v>
       </c>
       <c r="B522" s="4">
-        <v>66.8895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="19.5">
+        <v>66.889499999999998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A523" s="3">
         <v>42522</v>
       </c>
       <c r="B523" s="4">
-        <v>67.2655</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="19.5">
+        <v>67.265500000000003</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A524" s="3">
         <v>42552</v>
       </c>
       <c r="B524" s="4">
-        <v>67.158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="19.5">
+        <v>67.158000000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A525" s="3">
         <v>42583</v>
       </c>
       <c r="B525" s="4">
-        <v>66.9035</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="19.5">
+        <v>66.903499999999994</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A526" s="3">
         <v>42614</v>
       </c>
       <c r="B526" s="4">
-        <v>66.7138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="19.5">
+        <v>66.713800000000006</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A527" s="3">
         <v>42644</v>
       </c>
       <c r="B527" s="4">
-        <v>66.7415</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="19.5">
+        <v>66.741500000000002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A528" s="3">
         <v>42675</v>
       </c>
       <c r="B528" s="4">
-        <v>67.6395</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="19.5">
+        <v>67.639499999999998</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A529" s="3">
         <v>42705</v>
       </c>
       <c r="B529" s="4">
-        <v>67.8052</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="19.5">
+        <v>67.805199999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A530" s="3">
         <v>42736</v>
       </c>
       <c r="B530" s="4">
-        <v>68.0474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="19.5">
+        <v>68.047399999999996</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A531" s="3">
         <v>42767</v>
       </c>
@@ -4652,31 +4657,31 @@
         <v>66.9726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="19.5">
+    <row r="532" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A532" s="3">
         <v>42795</v>
       </c>
       <c r="B532" s="4">
-        <v>65.8009</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="19.5">
+        <v>65.800899999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A533" s="3">
         <v>42826</v>
       </c>
       <c r="B533" s="4">
-        <v>64.536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="19.5">
+        <v>64.536000000000001</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A534" s="3">
         <v>42856</v>
       </c>
       <c r="B534" s="4">
-        <v>64.4195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="19.5">
+        <v>64.419499999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A535" s="3">
         <v>42887</v>
       </c>
@@ -4684,135 +4689,135 @@
         <v>64.4482</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="19.5">
+    <row r="536" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A536" s="3">
         <v>42917</v>
       </c>
       <c r="B536" s="4">
-        <v>64.424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="19.5">
+        <v>64.424000000000007</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A537" s="3">
         <v>42948</v>
       </c>
       <c r="B537" s="4">
-        <v>63.9683</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="19.5">
+        <v>63.968299999999999</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A538" s="3">
         <v>42979</v>
       </c>
       <c r="B538" s="4">
-        <v>64.4775</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="19.5">
+        <v>64.477500000000006</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A539" s="3">
         <v>43009</v>
       </c>
       <c r="B539" s="4">
-        <v>65.0357</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="19.5">
+        <v>65.035700000000006</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A540" s="3">
         <v>43040</v>
       </c>
       <c r="B540" s="4">
-        <v>64.8435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="19.5">
+        <v>64.843500000000006</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A541" s="3">
         <v>43070</v>
       </c>
       <c r="B541" s="4">
-        <v>64.2445</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="19.5">
+        <v>64.244500000000002</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A542" s="3">
         <v>43101</v>
       </c>
       <c r="B542" s="4">
-        <v>63.6452</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="19.5">
+        <v>63.645200000000003</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A543" s="3">
         <v>43132</v>
       </c>
       <c r="B543" s="4">
-        <v>64.43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="19.5">
+        <v>64.430000000000007</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A544" s="3">
         <v>43160</v>
       </c>
       <c r="B544" s="4">
-        <v>65.0455</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="19.5">
+        <v>65.045500000000004</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A545" s="3">
         <v>43191</v>
       </c>
       <c r="B545" s="4">
-        <v>65.6729</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="19.5">
+        <v>65.672899999999998</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A546" s="3">
         <v>43221</v>
       </c>
       <c r="B546" s="4">
-        <v>67.51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="19.5">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A547" s="3">
         <v>43252</v>
       </c>
       <c r="B547" s="4">
-        <v>67.79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="19.5">
+        <v>67.790000000000006</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A548" s="3">
         <v>43282</v>
       </c>
       <c r="B548" s="4">
-        <v>68.6867</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="19.5">
+        <v>68.686700000000002</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A549" s="3">
         <v>43313</v>
       </c>
       <c r="B549" s="4">
-        <v>69.6317</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="19.5">
+        <v>69.631699999999995</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A550" s="3">
         <v>43344</v>
       </c>
       <c r="B550" s="4">
-        <v>72.2779</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="19.5">
+        <v>72.277900000000002</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A551" s="3">
         <v>43374</v>
       </c>
       <c r="B551" s="4">
-        <v>73.5609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="19.5">
+        <v>73.560900000000004</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A552" s="3">
         <v>43405</v>
       </c>
@@ -4820,271 +4825,271 @@
         <v>71.738</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="19.5">
+    <row r="553" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A553" s="3">
         <v>43435</v>
       </c>
       <c r="B553" s="4">
-        <v>70.8331</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="19.5">
+        <v>70.833100000000002</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A554" s="3">
         <v>43466</v>
       </c>
       <c r="B554" s="4">
-        <v>70.71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="19.5">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A555" s="3">
         <v>43497</v>
       </c>
       <c r="B555" s="4">
-        <v>71.1739</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="19.5">
+        <v>71.173900000000003</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A556" s="3">
         <v>43525</v>
       </c>
       <c r="B556" s="4">
-        <v>69.4895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="19.5">
+        <v>69.489500000000007</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A557" s="3">
         <v>43556</v>
       </c>
       <c r="B557" s="4">
-        <v>69.4068</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="19.5">
+        <v>69.406800000000004</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A558" s="3">
         <v>43586</v>
       </c>
       <c r="B558" s="4">
-        <v>69.7827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="19.5">
+        <v>69.782700000000006</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A559" s="3">
         <v>43617</v>
       </c>
       <c r="B559" s="4">
-        <v>69.388</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="19.5">
+        <v>69.388000000000005</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A560" s="3">
         <v>43647</v>
       </c>
       <c r="B560" s="4">
-        <v>68.7391</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="19.5">
+        <v>68.739099999999993</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A561" s="3">
         <v>43678</v>
       </c>
       <c r="B561" s="4">
-        <v>71.1891</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="19.5">
+        <v>71.189099999999996</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A562" s="3">
         <v>43709</v>
       </c>
       <c r="B562" s="4">
-        <v>71.311</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="19.5">
+        <v>71.311000000000007</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A563" s="3">
         <v>43739</v>
       </c>
       <c r="B563" s="4">
-        <v>71.0086</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="19.5">
+        <v>71.008600000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A564" s="3">
         <v>43770</v>
       </c>
       <c r="B564" s="4">
-        <v>71.4942</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="19.5">
+        <v>71.494200000000006</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A565" s="3">
         <v>43800</v>
       </c>
       <c r="B565" s="4">
-        <v>71.1567</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="19.5">
+        <v>71.156700000000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A566" s="3">
         <v>43831</v>
       </c>
       <c r="B566" s="4">
-        <v>71.279</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="19.5">
+        <v>71.278999999999996</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A567" s="3">
         <v>43862</v>
       </c>
       <c r="B567" s="4">
-        <v>71.5295</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="19.5">
+        <v>71.529499999999999</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A568" s="3">
         <v>43891</v>
       </c>
       <c r="B568" s="4">
-        <v>74.5482</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="19.5">
+        <v>74.548199999999994</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A569" s="3">
         <v>43922</v>
       </c>
       <c r="B569" s="4">
-        <v>76.1682</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="19.5">
+        <v>76.168199999999999</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A570" s="3">
         <v>43952</v>
       </c>
       <c r="B570" s="4">
-        <v>75.6575</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="19.5">
+        <v>75.657499999999999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A571" s="3">
         <v>43983</v>
       </c>
       <c r="B571" s="4">
-        <v>75.7077</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="19.5">
+        <v>75.707700000000003</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A572" s="3">
         <v>44013</v>
       </c>
       <c r="B572" s="4">
-        <v>74.9286</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="19.5">
+        <v>74.928600000000003</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A573" s="3">
         <v>44044</v>
       </c>
       <c r="B573" s="4">
-        <v>74.5657</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="19.5">
+        <v>74.565700000000007</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A574" s="3">
         <v>44075</v>
       </c>
       <c r="B574" s="4">
-        <v>73.5233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="19.5">
+        <v>73.523300000000006</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A575" s="3">
         <v>44105</v>
       </c>
       <c r="B575" s="4">
-        <v>73.5648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="19.5">
+        <v>73.564800000000005</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A576" s="3">
         <v>44136</v>
       </c>
       <c r="B576" s="4">
-        <v>74.2311</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="19.5">
+        <v>74.231099999999998</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A577" s="3">
         <v>44166</v>
       </c>
       <c r="B577" s="4">
-        <v>73.6195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="19.5">
+        <v>73.619500000000002</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A578" s="3">
         <v>44197</v>
       </c>
       <c r="B578" s="4">
-        <v>73.1106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="19.5">
+        <v>73.110600000000005</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A579" s="3">
         <v>44228</v>
       </c>
       <c r="B579" s="4">
-        <v>72.8053</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="19.5">
+        <v>72.805300000000003</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" s="3">
         <v>44256</v>
       </c>
       <c r="B580" s="4">
-        <v>72.8196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="19.5">
+        <v>72.819599999999994</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A581" s="3">
         <v>44287</v>
       </c>
       <c r="B581" s="4">
-        <v>74.5186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="19.5">
+        <v>74.518600000000006</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A582" s="3">
         <v>44317</v>
       </c>
       <c r="B582" s="4">
-        <v>73.2065</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="19.5">
+        <v>73.206500000000005</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A583" s="3">
         <v>44348</v>
       </c>
       <c r="B583" s="4">
-        <v>73.5782</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="19.5">
+        <v>73.578199999999995</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A584" s="3">
         <v>44378</v>
       </c>
       <c r="B584" s="4">
-        <v>74.539</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="19.5">
+        <v>74.539000000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A585" s="3">
         <v>44409</v>
       </c>
       <c r="B585" s="4">
-        <v>74.1155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="19.5">
+        <v>74.115499999999997</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A586" s="3">
         <v>44440</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>73.6357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="19.5">
+    <row r="587" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A587" s="3">
         <v>44470</v>
       </c>
@@ -5100,63 +5105,63 @@
         <v>74.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="19.5">
+    <row r="588" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A588" s="3">
         <v>44501</v>
       </c>
       <c r="B588" s="4">
-        <v>74.477</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="19.5">
+        <v>74.477000000000004</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A589" s="3">
         <v>44531</v>
       </c>
       <c r="B589" s="4">
-        <v>75.3948</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="19.5">
+        <v>75.394800000000004</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A590" s="3">
         <v>44562</v>
       </c>
       <c r="B590" s="4">
-        <v>74.4075</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="19.5">
+        <v>74.407499999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A591" s="3">
         <v>44593</v>
       </c>
       <c r="B591" s="4">
-        <v>74.9695</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="19.5">
+        <v>74.969499999999996</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A592" s="3">
         <v>44621</v>
       </c>
       <c r="B592" s="4">
-        <v>76.1896</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="19.5">
+        <v>76.189599999999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A593" s="3">
         <v>44652</v>
       </c>
       <c r="B593" s="4">
-        <v>76.1719</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="19.5">
+        <v>76.171899999999994</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A594" s="3">
         <v>44682</v>
       </c>
       <c r="B594" s="4">
-        <v>77.2933</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="19.5">
+        <v>77.293300000000002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A595" s="3">
         <v>44713</v>
       </c>
@@ -5164,55 +5169,55 @@
         <v>78.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="19.5">
+    <row r="596" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A596" s="3">
         <v>44743</v>
       </c>
       <c r="B596" s="4">
-        <v>79.5915</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="19.5">
+        <v>79.591499999999996</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A597" s="3">
         <v>44774</v>
       </c>
       <c r="B597" s="4">
-        <v>79.5065</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="19.5">
+        <v>79.506500000000003</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A598" s="3">
         <v>44805</v>
       </c>
       <c r="B598" s="4">
-        <v>80.2538</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="19.5">
+        <v>80.253799999999998</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A599" s="3">
         <v>44835</v>
       </c>
       <c r="B599" s="4">
-        <v>82.2915</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="19.5">
+        <v>82.291499999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A600" s="3">
         <v>44866</v>
       </c>
       <c r="B600" s="4">
-        <v>81.6805</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="19.5">
+        <v>81.680499999999995</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A601" s="3">
         <v>44896</v>
       </c>
       <c r="B601" s="4">
-        <v>82.4738</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="19.5">
+        <v>82.473799999999997</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A602" s="3">
         <v>44927</v>
       </c>
@@ -5220,63 +5225,63 @@
         <v>81.741</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="19.5">
+    <row r="603" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A603" s="3">
         <v>44958</v>
       </c>
       <c r="B603" s="4">
-        <v>82.5995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="19.5">
+        <v>82.599500000000006</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A604" s="3">
         <v>44986</v>
       </c>
       <c r="B604" s="4">
-        <v>82.2665</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="19.5">
+        <v>82.266499999999994</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A605" s="3">
         <v>45017</v>
       </c>
       <c r="B605" s="4">
-        <v>81.9685</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="19.5">
+        <v>81.968500000000006</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A606" s="3">
         <v>45047</v>
       </c>
       <c r="B606" s="4">
-        <v>82.2977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="19.5">
+        <v>82.297700000000006</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A607" s="3">
         <v>45078</v>
       </c>
       <c r="B607" s="4">
-        <v>82.2252</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="19.5">
+        <v>82.225200000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A608" s="3">
         <v>45108</v>
       </c>
       <c r="B608" s="4">
-        <v>82.1565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="19.5">
+        <v>82.156499999999994</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A609" s="3">
         <v>45139</v>
       </c>
       <c r="B609" s="4">
-        <v>82.8122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="19.5">
+        <v>82.812200000000004</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A610" s="3">
         <v>45170</v>
       </c>
@@ -5284,47 +5289,47 @@
         <v>83.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="19.5">
+    <row r="611" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A611" s="3">
         <v>45200</v>
       </c>
       <c r="B611" s="4">
-        <v>83.2162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="19.5">
+        <v>83.216200000000001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A612" s="3">
         <v>45231</v>
       </c>
       <c r="B612" s="4">
-        <v>83.266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="19.5">
+        <v>83.266000000000005</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A613" s="3">
         <v>45261</v>
       </c>
       <c r="B613" s="4">
-        <v>83.254</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="19.5">
+        <v>83.254000000000005</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A614" s="3">
         <v>45292</v>
       </c>
       <c r="B614" s="4">
-        <v>83.1119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="19.5">
+        <v>83.111900000000006</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A615" s="3">
         <v>45323</v>
       </c>
       <c r="B615" s="4">
-        <v>82.9485</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="19.5">
+        <v>82.948499999999996</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A616" s="3">
         <v>45352</v>
       </c>
